--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_12_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_12_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3640405.15309356</v>
+        <v>3637400.319087285</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8332028.172575413</v>
+        <v>8332028.172575408</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215498.8072369354</v>
+        <v>215498.8072369355</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.956053622142033</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,64 +740,64 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="T3" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11.91464376220976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,14 +943,14 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.487951988786145</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="W6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
     </row>
     <row r="9">
@@ -1217,13 +1217,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="T9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="J10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>15.30273751513505</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C11" t="n">
         <v>315.0558019182865</v>
@@ -1378,13 +1378,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E11" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F11" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G11" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H11" t="n">
         <v>246.0271444221797</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582549</v>
       </c>
       <c r="T11" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V11" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W11" t="n">
-        <v>299.0238788646913</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X11" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>90.42258930657241</v>
       </c>
       <c r="I12" t="n">
-        <v>11.63509279696284</v>
+        <v>11.63509279696285</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D13" t="n">
-        <v>98.39838316549225</v>
+        <v>98.39838316549132</v>
       </c>
       <c r="E13" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384814</v>
       </c>
       <c r="F13" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021021</v>
       </c>
       <c r="G13" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H13" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I13" t="n">
-        <v>48.29085923760799</v>
+        <v>48.29085923760815</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451743</v>
       </c>
       <c r="S13" t="n">
         <v>140.8010734716172</v>
@@ -1596,7 +1596,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C14" t="n">
         <v>315.0558019182865</v>
@@ -1615,16 +1615,16 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E14" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F14" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G14" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H14" t="n">
-        <v>246.0271444221794</v>
+        <v>246.0271444221797</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.61193228582566</v>
+        <v>62.61193228582567</v>
       </c>
       <c r="T14" t="n">
-        <v>154.4003697957855</v>
+        <v>154.4003697957859</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7908654667088</v>
+        <v>200.7908654667093</v>
       </c>
       <c r="V14" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W14" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X14" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y14" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>90.42258930657241</v>
       </c>
       <c r="I15" t="n">
-        <v>11.63509279696284</v>
+        <v>11.63509279696285</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D16" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549132</v>
       </c>
       <c r="E16" t="n">
-        <v>96.21687279384813</v>
+        <v>96.2168727938478</v>
       </c>
       <c r="F16" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021021</v>
       </c>
       <c r="G16" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H16" t="n">
-        <v>95.17520046955622</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I16" t="n">
-        <v>48.29085923760853</v>
+        <v>48.29085923760802</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451743</v>
       </c>
       <c r="S16" t="n">
         <v>140.8010734716172</v>
@@ -1833,7 +1833,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C17" t="n">
         <v>315.0558019182865</v>
@@ -1852,13 +1852,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E17" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F17" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G17" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H17" t="n">
         <v>246.0271444221797</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.61193228582567</v>
+        <v>62.61193228582639</v>
       </c>
       <c r="T17" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U17" t="n">
-        <v>200.7908654667084</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V17" t="n">
         <v>277.5351686174139</v>
       </c>
       <c r="W17" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X17" t="n">
         <v>319.514010825748</v>
@@ -2007,22 +2007,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D19" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E19" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F19" t="n">
-        <v>95.20395817021061</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G19" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H19" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I19" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451745</v>
       </c>
       <c r="S19" t="n">
         <v>140.8010734716172</v>
@@ -2070,7 +2070,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C20" t="n">
         <v>315.0558019182865</v>
@@ -2089,7 +2089,7 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E20" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F20" t="n">
         <v>356.6589558889904</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.61193228582567</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T20" t="n">
-        <v>154.4003697957855</v>
+        <v>154.4003697957859</v>
       </c>
       <c r="U20" t="n">
         <v>200.7908654667088</v>
@@ -2143,7 +2143,7 @@
         <v>277.5351686174139</v>
       </c>
       <c r="W20" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X20" t="n">
         <v>319.514010825748</v>
@@ -2244,22 +2244,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D22" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E22" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F22" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G22" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H22" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I22" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451745</v>
       </c>
       <c r="S22" t="n">
         <v>140.8010734716172</v>
@@ -2307,7 +2307,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C23" t="n">
         <v>315.0558019182865</v>
@@ -2326,7 +2326,7 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E23" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195413</v>
       </c>
       <c r="F23" t="n">
         <v>356.6589558889904</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.61193228582567</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T23" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U23" t="n">
-        <v>200.7908654667093</v>
+        <v>200.7908654667089</v>
       </c>
       <c r="V23" t="n">
         <v>277.5351686174139</v>
       </c>
       <c r="W23" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X23" t="n">
         <v>319.514010825748</v>
@@ -2481,22 +2481,22 @@
         <v>117.0297312459068</v>
       </c>
       <c r="D25" t="n">
-        <v>98.39838316549131</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E25" t="n">
-        <v>96.21687279384813</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F25" t="n">
-        <v>95.2039581702102</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G25" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H25" t="n">
-        <v>95.17520046955624</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I25" t="n">
-        <v>48.290859237608</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93793006451742</v>
+        <v>41.93793006451654</v>
       </c>
       <c r="S25" t="n">
         <v>140.8010734716172</v>
@@ -2544,7 +2544,7 @@
         <v>175.4925655363161</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="26">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.66924632575125</v>
+        <v>92.48643398952265</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.15501991723846</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>191.0181633243382</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
         <v>411.0815176600523</v>
       </c>
       <c r="H29" t="n">
-        <v>296.2442342749007</v>
+        <v>296.2442342749008</v>
       </c>
       <c r="I29" t="n">
-        <v>47.73731110732743</v>
+        <v>47.73731110732749</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.8290221385467</v>
+        <v>112.8290221385468</v>
       </c>
       <c r="T29" t="n">
         <v>204.6174596485066</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0079553194288</v>
+        <v>251.0079553194315</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.2441549114327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0974854521522</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.3922903222773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.50794909032905</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.15501991723846</v>
       </c>
       <c r="S31" t="n">
-        <v>191.0181633243382</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2157478706923</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>28.83757053427849</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>296.2442342749007</v>
       </c>
       <c r="I32" t="n">
-        <v>47.73731110732743</v>
+        <v>47.73731110732811</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>112.8290221385455</v>
+        <v>112.8290221385467</v>
       </c>
       <c r="T32" t="n">
-        <v>204.6174596485068</v>
+        <v>204.6174596485066</v>
       </c>
       <c r="U32" t="n">
         <v>251.0079553194299</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>53.28312616469719</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0974854521522</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.50794909032905</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>103.6726171319234</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.8552063740624</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2157478706923</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C35" t="n">
         <v>315.0558019182865</v>
@@ -3274,13 +3274,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E35" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F35" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G35" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H35" t="n">
         <v>246.0271444221797</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.61193228582565</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T35" t="n">
         <v>154.4003697957855</v>
       </c>
       <c r="U35" t="n">
-        <v>200.7908654667097</v>
+        <v>200.7908654667084</v>
       </c>
       <c r="V35" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W35" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X35" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>129.6148903292162</v>
+        <v>129.6148903292163</v>
       </c>
       <c r="C37" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D37" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E37" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F37" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817020926</v>
       </c>
       <c r="G37" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H37" t="n">
-        <v>95.17520046955622</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I37" t="n">
-        <v>48.29085923760798</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93793006451698</v>
+        <v>41.93793006451745</v>
       </c>
       <c r="S37" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T37" t="n">
-        <v>169.6381165213415</v>
+        <v>169.6381165213414</v>
       </c>
       <c r="U37" t="n">
-        <v>235.9986580179714</v>
+        <v>235.9986580179713</v>
       </c>
       <c r="V37" t="n">
-        <v>201.9205534711069</v>
+        <v>201.920553471107</v>
       </c>
       <c r="W37" t="n">
-        <v>236.3059084838699</v>
+        <v>236.30590848387</v>
       </c>
       <c r="X37" t="n">
         <v>175.4925655363161</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>332.5167518107595</v>
+        <v>332.5167518107596</v>
       </c>
       <c r="C38" t="n">
         <v>315.0558019182865</v>
@@ -3511,13 +3511,13 @@
         <v>304.4659517679619</v>
       </c>
       <c r="E38" t="n">
-        <v>331.7132802195407</v>
+        <v>331.7132802195408</v>
       </c>
       <c r="F38" t="n">
         <v>356.6589558889904</v>
       </c>
       <c r="G38" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073313</v>
       </c>
       <c r="H38" t="n">
         <v>246.0271444221797</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.61193228582564</v>
+        <v>62.6119322858257</v>
       </c>
       <c r="T38" t="n">
         <v>154.4003697957855</v>
@@ -3562,16 +3562,16 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V38" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W38" t="n">
-        <v>299.0238788646919</v>
+        <v>299.023878864692</v>
       </c>
       <c r="X38" t="n">
         <v>319.514010825748</v>
       </c>
       <c r="Y38" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.6148903292162</v>
+        <v>129.6148903292163</v>
       </c>
       <c r="C40" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D40" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549134</v>
       </c>
       <c r="E40" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384815</v>
       </c>
       <c r="F40" t="n">
-        <v>95.20395817021017</v>
+        <v>95.20395817021023</v>
       </c>
       <c r="G40" t="n">
-        <v>115.8803955994311</v>
+        <v>115.8803955994312</v>
       </c>
       <c r="H40" t="n">
-        <v>95.17520046955622</v>
+        <v>95.17520046955627</v>
       </c>
       <c r="I40" t="n">
-        <v>48.29085923760798</v>
+        <v>48.29085923760803</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451745</v>
       </c>
       <c r="S40" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T40" t="n">
-        <v>169.6381165213413</v>
+        <v>169.6381165213414</v>
       </c>
       <c r="U40" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V40" t="n">
-        <v>201.9205534711069</v>
+        <v>201.920553471107</v>
       </c>
       <c r="W40" t="n">
-        <v>236.3059084838699</v>
+        <v>236.30590848387</v>
       </c>
       <c r="X40" t="n">
         <v>175.4925655363161</v>
       </c>
       <c r="Y40" t="n">
-        <v>168.3675634993737</v>
+        <v>168.3675634993738</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.61193228582639</v>
+        <v>62.61193228582594</v>
       </c>
       <c r="T41" t="n">
         <v>154.4003697957855</v>
@@ -3799,7 +3799,7 @@
         <v>200.7908654667088</v>
       </c>
       <c r="V41" t="n">
-        <v>277.5351686174138</v>
+        <v>277.5351686174139</v>
       </c>
       <c r="W41" t="n">
         <v>299.0238788646919</v>
@@ -3808,7 +3808,7 @@
         <v>319.514010825748</v>
       </c>
       <c r="Y41" t="n">
-        <v>336.0208488033325</v>
+        <v>336.0208488033326</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.6148903292162</v>
+        <v>129.6148903292163</v>
       </c>
       <c r="C43" t="n">
         <v>117.0297312459068</v>
       </c>
       <c r="D43" t="n">
-        <v>98.39838316549128</v>
+        <v>98.39838316549131</v>
       </c>
       <c r="E43" t="n">
-        <v>96.2168727938481</v>
+        <v>96.21687279384813</v>
       </c>
       <c r="F43" t="n">
-        <v>95.20395817021017</v>
+        <v>95.2039581702102</v>
       </c>
       <c r="G43" t="n">
         <v>115.8803955994311</v>
       </c>
       <c r="H43" t="n">
-        <v>95.17520046955707</v>
+        <v>95.17520046955624</v>
       </c>
       <c r="I43" t="n">
-        <v>48.29085923760798</v>
+        <v>48.290859237608</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451742</v>
       </c>
       <c r="S43" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T43" t="n">
-        <v>169.6381165213413</v>
+        <v>169.6381165213414</v>
       </c>
       <c r="U43" t="n">
         <v>235.9986580179713</v>
       </c>
       <c r="V43" t="n">
-        <v>201.9205534711069</v>
+        <v>201.920553471107</v>
       </c>
       <c r="W43" t="n">
-        <v>236.3059084838699</v>
+        <v>236.30590848387</v>
       </c>
       <c r="X43" t="n">
         <v>175.4925655363161</v>
@@ -3988,10 +3988,10 @@
         <v>331.7132802195407</v>
       </c>
       <c r="F44" t="n">
-        <v>356.6589558889914</v>
+        <v>356.6589558889904</v>
       </c>
       <c r="G44" t="n">
-        <v>360.8644278073312</v>
+        <v>360.8644278073317</v>
       </c>
       <c r="H44" t="n">
         <v>246.0271444221797</v>
@@ -4155,7 +4155,7 @@
         <v>95.17520046955622</v>
       </c>
       <c r="I46" t="n">
-        <v>48.29085923760798</v>
+        <v>48.29085923760797</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93793006451739</v>
+        <v>41.93793006451738</v>
       </c>
       <c r="S46" t="n">
         <v>140.8010734716172</v>
       </c>
       <c r="T46" t="n">
-        <v>169.6381165213424</v>
+        <v>169.6381165213413</v>
       </c>
       <c r="U46" t="n">
-        <v>235.9986580179713</v>
+        <v>235.9986580179718</v>
       </c>
       <c r="V46" t="n">
         <v>201.9205534711069</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F2" t="n">
-        <v>44.20882949099123</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G2" t="n">
-        <v>28.75151886964269</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H2" t="n">
         <v>13.29420824829416</v>
@@ -4333,49 +4333,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L2" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M2" t="n">
+        <v>15.7618196405891</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>51.15433024019471</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T2" t="n">
-        <v>51.15433024019471</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.15433024019471</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="C3" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
@@ -4415,46 +4415,46 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M3" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P3" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="S3" t="n">
-        <v>30.29632881784312</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="T3" t="n">
-        <v>16.68152962255934</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="U3" t="n">
-        <v>16.68152962255934</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="V3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="W3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="X3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D4" t="n">
-        <v>1.224219001210804</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
@@ -4521,19 +4521,19 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U4" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V4" t="n">
-        <v>30.29632881784312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W4" t="n">
-        <v>14.83901819649459</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F5" t="n">
-        <v>28.71652332176112</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.25921270041258</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.25921270041258</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
         <v>1.224219001210804</v>
@@ -4570,19 +4570,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M5" t="n">
-        <v>16.37392914119451</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N5" t="n">
-        <v>31.52363928117821</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4591,10 +4591,10 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
         <v>35.66202407096459</v>
@@ -4606,13 +4606,13 @@
         <v>35.66202407096459</v>
       </c>
       <c r="W5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.66202407096459</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.13884024390788</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C6" t="n">
-        <v>32.13884024390788</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D6" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E6" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F6" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G6" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H6" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4670,28 +4670,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X6" t="n">
-        <v>61.2109500605402</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.59615086525642</v>
+        <v>1.978351653996518</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
         <v>1.224219001210804</v>
@@ -4743,34 +4743,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P7" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R7" t="n">
-        <v>45.75363943919166</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="S7" t="n">
-        <v>45.75363943919166</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="T7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="U7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="V7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.69701961884617</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E8" t="n">
-        <v>35.69701961884617</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
@@ -4825,31 +4825,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X8" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="D9" t="n">
-        <v>14.83901819649459</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>14.83901819649459</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="T9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="U9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="E10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="H10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="I10" t="n">
         <v>32.13884024390788</v>
-      </c>
-      <c r="F10" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="G10" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="H10" t="n">
-        <v>32.13884024390788</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.68152962255934</v>
       </c>
       <c r="J10" t="n">
         <v>16.68152962255934</v>
@@ -4983,31 +4983,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="X10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.59615086525642</v>
+        <v>43.00470940373054</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>328.8503291111392</v>
       </c>
       <c r="H11" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I11" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J11" t="n">
-        <v>255.7906676251869</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K11" t="n">
-        <v>579.3963490967487</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L11" t="n">
-        <v>1418.950951439572</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M11" t="n">
-        <v>2369.72375687249</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N11" t="n">
-        <v>2888.275607586002</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O11" t="n">
-        <v>3364.594154568028</v>
+        <v>2770.762337050704</v>
       </c>
       <c r="P11" t="n">
-        <v>3736.620013539175</v>
+        <v>3461.368917111619</v>
       </c>
       <c r="Q11" t="n">
-        <v>3967.823193632784</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R11" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S11" t="n">
-        <v>3953.65872485513</v>
+        <v>3953.658724855131</v>
       </c>
       <c r="T11" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364439</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.87969933746</v>
       </c>
       <c r="V11" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178456</v>
       </c>
       <c r="W11" t="n">
         <v>3012.496823092908</v>
@@ -5114,19 +5114,19 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H12" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485955</v>
       </c>
       <c r="I12" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J12" t="n">
-        <v>166.0185849899807</v>
+        <v>290.8487099769854</v>
       </c>
       <c r="K12" t="n">
-        <v>390.6150704668838</v>
+        <v>516.7021618797296</v>
       </c>
       <c r="L12" t="n">
-        <v>738.9353032735602</v>
+        <v>865.0223946864058</v>
       </c>
       <c r="M12" t="n">
         <v>1290.852545340072</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.262709171617</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C13" t="n">
-        <v>635.0508594282768</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D13" t="n">
-        <v>535.6585532005068</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E13" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026807</v>
       </c>
       <c r="F13" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893371</v>
       </c>
       <c r="G13" t="n">
-        <v>225.2532738434468</v>
+        <v>225.253273843447</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1167077125819</v>
+        <v>129.1167077125821</v>
       </c>
       <c r="I13" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J13" t="n">
-        <v>170.1587116408336</v>
+        <v>170.1587116408339</v>
       </c>
       <c r="K13" t="n">
-        <v>415.6165027907879</v>
+        <v>415.6165027907881</v>
       </c>
       <c r="L13" t="n">
         <v>771.3413408463373</v>
@@ -5220,7 +5220,7 @@
         <v>2147.109016642468</v>
       </c>
       <c r="Q13" t="n">
-        <v>2268.492264116395</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R13" t="n">
         <v>2226.13071859668</v>
@@ -5229,7 +5229,7 @@
         <v>2083.907412059693</v>
       </c>
       <c r="T13" t="n">
-        <v>1912.555779209854</v>
+        <v>1912.555779209853</v>
       </c>
       <c r="U13" t="n">
         <v>1674.173296363418</v>
@@ -5238,13 +5238,13 @@
         <v>1470.213141342098</v>
       </c>
       <c r="W13" t="n">
-        <v>1231.520304489704</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X13" t="n">
         <v>1054.255086776253</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.18684081729</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="14">
@@ -5254,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.226708589749</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.685343167565</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E14" t="n">
         <v>1053.621423753888</v>
       </c>
       <c r="F14" t="n">
-        <v>693.3598521488472</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G14" t="n">
-        <v>328.8503291111389</v>
+        <v>328.8503291111392</v>
       </c>
       <c r="H14" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="I14" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J14" t="n">
-        <v>423.19631664554</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K14" t="n">
-        <v>736.8928093005843</v>
+        <v>1057.796767746037</v>
       </c>
       <c r="L14" t="n">
-        <v>1162.962809238461</v>
+        <v>1588.71825316992</v>
       </c>
       <c r="M14" t="n">
-        <v>1668.717216513476</v>
+        <v>2094.472660444935</v>
       </c>
       <c r="N14" t="n">
-        <v>2187.269067226986</v>
+        <v>2613.024511158445</v>
       </c>
       <c r="O14" t="n">
-        <v>2770.762337050703</v>
+        <v>3089.343058140472</v>
       </c>
       <c r="P14" t="n">
-        <v>3461.368917111618</v>
+        <v>3461.368917111619</v>
       </c>
       <c r="Q14" t="n">
-        <v>3902.763937958532</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R14" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.903100901419</v>
       </c>
       <c r="S14" t="n">
-        <v>3953.65872485513</v>
+        <v>3953.658724855131</v>
       </c>
       <c r="T14" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U14" t="n">
         <v>3594.879699337459</v>
@@ -5320,10 +5320,10 @@
         <v>3012.496823092908</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.755398016394</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y14" t="n">
-        <v>2350.340399225149</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>183.4266297993771</v>
       </c>
       <c r="H15" t="n">
-        <v>92.09068100485952</v>
+        <v>92.09068100485955</v>
       </c>
       <c r="I15" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J15" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K15" t="n">
-        <v>390.6150704668838</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L15" t="n">
-        <v>865.0223946864055</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M15" t="n">
-        <v>1290.852545340072</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N15" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P15" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q15" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R15" t="n">
         <v>2574.358745311557</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>753.2627091716165</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C16" t="n">
-        <v>635.0508594282763</v>
+        <v>635.0508594282757</v>
       </c>
       <c r="D16" t="n">
-        <v>535.6585532005073</v>
+        <v>535.6585532005066</v>
       </c>
       <c r="E16" t="n">
-        <v>438.4697928026809</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F16" t="n">
-        <v>342.3041784893372</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G16" t="n">
-        <v>225.2532738434473</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1167077125824</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I16" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J16" t="n">
         <v>170.1587116408336</v>
@@ -5442,7 +5442,7 @@
         <v>415.6165027907879</v>
       </c>
       <c r="L16" t="n">
-        <v>771.3413408463373</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M16" t="n">
         <v>1154.089936830755</v>
@@ -5478,10 +5478,10 @@
         <v>1231.520304489703</v>
       </c>
       <c r="X16" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1868408172895</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.464892345594</v>
+        <v>2014.464892345595</v>
       </c>
       <c r="C17" t="n">
         <v>1696.22670858975</v>
@@ -5503,55 +5503,55 @@
         <v>1053.621423753888</v>
       </c>
       <c r="F17" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488476</v>
       </c>
       <c r="G17" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H17" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="I17" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J17" t="n">
-        <v>255.7906676251868</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K17" t="n">
-        <v>569.487160280231</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L17" t="n">
-        <v>1409.041762623054</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M17" t="n">
-        <v>1914.796169898068</v>
+        <v>2113.735614671379</v>
       </c>
       <c r="N17" t="n">
-        <v>2866.321475779443</v>
+        <v>2632.28746538489</v>
       </c>
       <c r="O17" t="n">
-        <v>3364.594154568028</v>
+        <v>3108.606012366916</v>
       </c>
       <c r="P17" t="n">
-        <v>3736.620013539175</v>
+        <v>3526.428172785872</v>
       </c>
       <c r="Q17" t="n">
-        <v>3967.823193632784</v>
+        <v>3967.823193632787</v>
       </c>
       <c r="R17" t="n">
-        <v>4016.903100901418</v>
+        <v>4016.90310090142</v>
       </c>
       <c r="S17" t="n">
-        <v>3953.65872485513</v>
+        <v>3953.658724855131</v>
       </c>
       <c r="T17" t="n">
-        <v>3797.698755364437</v>
+        <v>3797.698755364439</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.87969933746</v>
       </c>
       <c r="V17" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178456</v>
       </c>
       <c r="W17" t="n">
         <v>3012.496823092908</v>
@@ -5585,28 +5585,28 @@
         <v>319.8760898262431</v>
       </c>
       <c r="G18" t="n">
-        <v>183.4266297993771</v>
+        <v>183.4266297993772</v>
       </c>
       <c r="H18" t="n">
-        <v>92.09068100485953</v>
+        <v>92.09068100485958</v>
       </c>
       <c r="I18" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J18" t="n">
-        <v>166.0185849899807</v>
+        <v>290.8487099769854</v>
       </c>
       <c r="K18" t="n">
-        <v>390.6150704668837</v>
+        <v>516.7021618797296</v>
       </c>
       <c r="L18" t="n">
-        <v>738.93530327356</v>
+        <v>865.0223946864058</v>
       </c>
       <c r="M18" t="n">
-        <v>1164.765453927226</v>
+        <v>1290.852545340072</v>
       </c>
       <c r="N18" t="n">
-        <v>1616.274706487284</v>
+        <v>1742.361797900129</v>
       </c>
       <c r="O18" t="n">
         <v>2133.184759301471</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>753.2627091716165</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C19" t="n">
-        <v>635.0508594282763</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D19" t="n">
-        <v>535.6585532005073</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E19" t="n">
-        <v>438.4697928026809</v>
+        <v>438.4697928026807</v>
       </c>
       <c r="F19" t="n">
-        <v>342.3041784893368</v>
+        <v>342.304178489337</v>
       </c>
       <c r="G19" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H19" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I19" t="n">
-        <v>80.33806201802837</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J19" t="n">
         <v>170.1587116408336</v>
@@ -5691,10 +5691,10 @@
         <v>1873.368937650503</v>
       </c>
       <c r="P19" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642468</v>
       </c>
       <c r="Q19" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116395</v>
       </c>
       <c r="R19" t="n">
         <v>2226.13071859668</v>
@@ -5706,10 +5706,10 @@
         <v>1912.555779209853</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V19" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W19" t="n">
         <v>1231.520304489703</v>
@@ -5718,7 +5718,7 @@
         <v>1054.255086776253</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1868408172895</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="20">
@@ -5731,73 +5731,73 @@
         <v>2014.464892345595</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.22670858975</v>
+        <v>1696.226708589751</v>
       </c>
       <c r="D20" t="n">
-        <v>1388.685343167566</v>
+        <v>1388.685343167567</v>
       </c>
       <c r="E20" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F20" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488484</v>
       </c>
       <c r="G20" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H20" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="I20" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J20" t="n">
-        <v>255.7906676251868</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K20" t="n">
-        <v>569.487160280231</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L20" t="n">
-        <v>1103.33719338334</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M20" t="n">
-        <v>1609.091600658354</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N20" t="n">
-        <v>2127.643451371865</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O20" t="n">
-        <v>2980.954177804009</v>
+        <v>2770.762337050705</v>
       </c>
       <c r="P20" t="n">
-        <v>3671.560757864924</v>
+        <v>3461.36891711162</v>
       </c>
       <c r="Q20" t="n">
-        <v>3902.763937958533</v>
+        <v>3902.763937958534</v>
       </c>
       <c r="R20" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.90310090142</v>
       </c>
       <c r="S20" t="n">
-        <v>3953.65872485513</v>
+        <v>3953.658724855132</v>
       </c>
       <c r="T20" t="n">
-        <v>3797.698755364438</v>
+        <v>3797.698755364439</v>
       </c>
       <c r="U20" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.87969933746</v>
       </c>
       <c r="V20" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178456</v>
       </c>
       <c r="W20" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092909</v>
       </c>
       <c r="X20" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016396</v>
       </c>
       <c r="Y20" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225151</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>319.8760898262431</v>
       </c>
       <c r="G21" t="n">
-        <v>183.4266297993771</v>
+        <v>183.4266297993772</v>
       </c>
       <c r="H21" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485958</v>
       </c>
       <c r="I21" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K21" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L21" t="n">
-        <v>738.93530327356</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M21" t="n">
-        <v>1164.765453927226</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N21" t="n">
-        <v>1616.274706487284</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O21" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P21" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R21" t="n">
         <v>2574.358745311557</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>753.2627091716162</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C22" t="n">
-        <v>635.050859428276</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D22" t="n">
-        <v>535.658553200507</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E22" t="n">
-        <v>438.4697928026806</v>
+        <v>438.4697928026807</v>
       </c>
       <c r="F22" t="n">
-        <v>342.3041784893369</v>
+        <v>342.304178489337</v>
       </c>
       <c r="G22" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H22" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I22" t="n">
-        <v>80.33806201802838</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J22" t="n">
         <v>170.1587116408336</v>
@@ -5919,43 +5919,43 @@
         <v>771.3413408463371</v>
       </c>
       <c r="M22" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N22" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O22" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P22" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642468</v>
       </c>
       <c r="Q22" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116395</v>
       </c>
       <c r="R22" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S22" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T22" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V22" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W22" t="n">
         <v>1231.520304489703</v>
       </c>
       <c r="X22" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1868408172892</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="23">
@@ -5971,70 +5971,70 @@
         <v>1696.22670858975</v>
       </c>
       <c r="D23" t="n">
-        <v>1388.685343167566</v>
+        <v>1388.685343167567</v>
       </c>
       <c r="E23" t="n">
-        <v>1053.621423753889</v>
+        <v>1053.621423753888</v>
       </c>
       <c r="F23" t="n">
-        <v>693.3598521488479</v>
+        <v>693.3598521488476</v>
       </c>
       <c r="G23" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H23" t="n">
-        <v>80.3380620180284</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="I23" t="n">
-        <v>80.3380620180284</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J23" t="n">
-        <v>255.7906676251869</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K23" t="n">
-        <v>569.4871602802311</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L23" t="n">
-        <v>995.5571602181082</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M23" t="n">
-        <v>1946.329965651027</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N23" t="n">
-        <v>2888.275607586004</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O23" t="n">
-        <v>3364.59415456803</v>
+        <v>2770.762337050705</v>
       </c>
       <c r="P23" t="n">
-        <v>3736.620013539177</v>
+        <v>3461.36891711162</v>
       </c>
       <c r="Q23" t="n">
-        <v>3967.823193632786</v>
+        <v>3902.763937958534</v>
       </c>
       <c r="R23" t="n">
         <v>4016.90310090142</v>
       </c>
       <c r="S23" t="n">
-        <v>3953.658724855131</v>
+        <v>3953.658724855132</v>
       </c>
       <c r="T23" t="n">
         <v>3797.698755364439</v>
       </c>
       <c r="U23" t="n">
-        <v>3594.87969933746</v>
+        <v>3594.879699337461</v>
       </c>
       <c r="V23" t="n">
-        <v>3314.541145178456</v>
+        <v>3314.541145178457</v>
       </c>
       <c r="W23" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092909</v>
       </c>
       <c r="X23" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016396</v>
       </c>
       <c r="Y23" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225151</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>183.4266297993772</v>
       </c>
       <c r="H24" t="n">
-        <v>92.09068100485956</v>
+        <v>92.09068100485958</v>
       </c>
       <c r="I24" t="n">
-        <v>80.3380620180284</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J24" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K24" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L24" t="n">
-        <v>865.0223946864058</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M24" t="n">
-        <v>1290.852545340072</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N24" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O24" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R24" t="n">
         <v>2574.358745311557</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>753.2627091716162</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C25" t="n">
-        <v>635.050859428276</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D25" t="n">
-        <v>535.658553200507</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E25" t="n">
-        <v>438.4697928026806</v>
+        <v>438.4697928026807</v>
       </c>
       <c r="F25" t="n">
-        <v>342.3041784893369</v>
+        <v>342.304178489337</v>
       </c>
       <c r="G25" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H25" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I25" t="n">
-        <v>80.3380620180284</v>
+        <v>80.33806201802841</v>
       </c>
       <c r="J25" t="n">
         <v>170.1587116408336</v>
@@ -6162,7 +6162,7 @@
         <v>1534.354352764115</v>
       </c>
       <c r="O25" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P25" t="n">
         <v>2147.109016642467</v>
@@ -6171,28 +6171,28 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R25" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S25" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T25" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V25" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W25" t="n">
         <v>1231.520304489703</v>
       </c>
       <c r="X25" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1868408172892</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.81480019666006</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2674058038185</v>
+        <v>438.6730548241716</v>
       </c>
       <c r="K26" t="n">
-        <v>584.9638984588628</v>
+        <v>1073.273505924669</v>
       </c>
       <c r="L26" t="n">
-        <v>1424.518500801686</v>
+        <v>1499.343505862546</v>
       </c>
       <c r="M26" t="n">
-        <v>2375.291306234604</v>
+        <v>2005.09791313756</v>
       </c>
       <c r="N26" t="n">
-        <v>3326.816612115979</v>
+        <v>2691.288519550143</v>
       </c>
       <c r="O26" t="n">
-        <v>4138.431063499614</v>
+        <v>3544.599245982287</v>
       </c>
       <c r="P26" t="n">
-        <v>4510.45692247076</v>
+        <v>4235.205826043202</v>
       </c>
       <c r="Q26" t="n">
-        <v>4741.660102564369</v>
+        <v>4676.600846890116</v>
       </c>
       <c r="R26" t="n">
         <v>4790.740009833003</v>
@@ -6305,28 +6305,28 @@
         <v>95.81480019666006</v>
       </c>
       <c r="J27" t="n">
-        <v>181.4953231686123</v>
+        <v>267.9126274115914</v>
       </c>
       <c r="K27" t="n">
-        <v>406.0918086455154</v>
+        <v>492.5091128884944</v>
       </c>
       <c r="L27" t="n">
-        <v>754.4120414521916</v>
+        <v>840.8293456951707</v>
       </c>
       <c r="M27" t="n">
-        <v>1180.242192105858</v>
+        <v>1266.659496348837</v>
       </c>
       <c r="N27" t="n">
-        <v>1631.751444665915</v>
+        <v>1718.168748908894</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.574406067257</v>
+        <v>2108.991710310236</v>
       </c>
       <c r="P27" t="n">
-        <v>2442.998313322315</v>
+        <v>2403.328526152448</v>
       </c>
       <c r="Q27" t="n">
-        <v>2589.835483490189</v>
+        <v>2550.165696320322</v>
       </c>
       <c r="R27" t="n">
         <v>2589.835483490189</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.750983124567</v>
+        <v>95.81480019666006</v>
       </c>
       <c r="C28" t="n">
         <v>95.81480019666006</v>
@@ -6408,28 +6408,28 @@
         <v>1886.249650661475</v>
       </c>
       <c r="R28" t="n">
-        <v>1793.163771957194</v>
+        <v>1886.249650661475</v>
       </c>
       <c r="S28" t="n">
-        <v>1600.21613223564</v>
+        <v>1693.302010939921</v>
       </c>
       <c r="T28" t="n">
-        <v>1378.140166201233</v>
+        <v>1471.226044905515</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.033350170231</v>
+        <v>1182.119228874512</v>
       </c>
       <c r="V28" t="n">
-        <v>834.3488619643441</v>
+        <v>927.4347406686253</v>
       </c>
       <c r="W28" t="n">
-        <v>544.9316919273836</v>
+        <v>638.0175706316647</v>
       </c>
       <c r="X28" t="n">
-        <v>316.9421410293662</v>
+        <v>410.0280197336474</v>
       </c>
       <c r="Y28" t="n">
-        <v>316.9421410293662</v>
+        <v>189.2354405901173</v>
       </c>
     </row>
     <row r="29">
@@ -6445,55 +6445,55 @@
         <v>2013.544618860233</v>
       </c>
       <c r="D29" t="n">
-        <v>1655.278920253483</v>
+        <v>1655.278920253482</v>
       </c>
       <c r="E29" t="n">
         <v>1269.490667655238</v>
       </c>
       <c r="F29" t="n">
-        <v>858.5047628656307</v>
+        <v>858.5047628656305</v>
       </c>
       <c r="G29" t="n">
-        <v>443.2709066433557</v>
+        <v>443.2709066433554</v>
       </c>
       <c r="H29" t="n">
-        <v>144.0343063656777</v>
+        <v>144.0343063656778</v>
       </c>
       <c r="I29" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666009</v>
       </c>
       <c r="J29" t="n">
-        <v>438.6730548241715</v>
+        <v>438.6730548241716</v>
       </c>
       <c r="K29" t="n">
         <v>1073.273505924669</v>
       </c>
       <c r="L29" t="n">
-        <v>1499.343505862546</v>
+        <v>1666.98226156162</v>
       </c>
       <c r="M29" t="n">
-        <v>2450.116311295465</v>
+        <v>2172.736668836634</v>
       </c>
       <c r="N29" t="n">
-        <v>3386.861420090028</v>
+        <v>2691.288519550145</v>
       </c>
       <c r="O29" t="n">
-        <v>3863.179967072054</v>
+        <v>3544.599245982289</v>
       </c>
       <c r="P29" t="n">
-        <v>4235.205826043201</v>
+        <v>4235.205826043204</v>
       </c>
       <c r="Q29" t="n">
-        <v>4676.600846890115</v>
+        <v>4676.600846890118</v>
       </c>
       <c r="R29" t="n">
-        <v>4790.740009833002</v>
+        <v>4790.740009833004</v>
       </c>
       <c r="S29" t="n">
-        <v>4676.771300602147</v>
+        <v>4676.771300602149</v>
       </c>
       <c r="T29" t="n">
-        <v>4470.086997926887</v>
+        <v>4470.08699792689</v>
       </c>
       <c r="U29" t="n">
         <v>4216.543608715343</v>
@@ -6530,28 +6530,28 @@
         <v>481.8873859779898</v>
       </c>
       <c r="F30" t="n">
-        <v>335.3528280048747</v>
+        <v>335.3528280048748</v>
       </c>
       <c r="G30" t="n">
         <v>198.9033679780088</v>
       </c>
       <c r="H30" t="n">
-        <v>107.5674191834912</v>
+        <v>107.5674191834913</v>
       </c>
       <c r="I30" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666009</v>
       </c>
       <c r="J30" t="n">
-        <v>181.4953231686123</v>
+        <v>181.4953231686124</v>
       </c>
       <c r="K30" t="n">
-        <v>406.0918086455154</v>
+        <v>532.178900058361</v>
       </c>
       <c r="L30" t="n">
-        <v>754.4120414521916</v>
+        <v>880.4991328650373</v>
       </c>
       <c r="M30" t="n">
-        <v>1180.242192105858</v>
+        <v>1306.329283518704</v>
       </c>
       <c r="N30" t="n">
         <v>1757.838536078761</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.5900380271167</v>
+        <v>656.8438637195791</v>
       </c>
       <c r="C31" t="n">
-        <v>263.5900380271167</v>
+        <v>656.8438637195791</v>
       </c>
       <c r="D31" t="n">
-        <v>263.5900380271167</v>
+        <v>656.8438637195791</v>
       </c>
       <c r="E31" t="n">
-        <v>263.5900380271167</v>
+        <v>656.8438637195791</v>
       </c>
       <c r="F31" t="n">
-        <v>263.5900380271167</v>
+        <v>509.9539162216687</v>
       </c>
       <c r="G31" t="n">
-        <v>95.81480019666003</v>
+        <v>342.178678391212</v>
       </c>
       <c r="H31" t="n">
-        <v>95.81480019666003</v>
+        <v>195.3177790757804</v>
       </c>
       <c r="I31" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666009</v>
       </c>
       <c r="J31" t="n">
-        <v>135.9205308652714</v>
+        <v>135.9205308652715</v>
       </c>
       <c r="K31" t="n">
-        <v>331.6634030610318</v>
+        <v>331.6634030610319</v>
       </c>
       <c r="L31" t="n">
         <v>637.6733221623872</v>
@@ -6645,28 +6645,28 @@
         <v>1886.249650661475</v>
       </c>
       <c r="R31" t="n">
-        <v>1886.249650661475</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="S31" t="n">
-        <v>1693.302010939921</v>
+        <v>1793.163771957194</v>
       </c>
       <c r="T31" t="n">
-        <v>1693.302010939921</v>
+        <v>1571.087805922787</v>
       </c>
       <c r="U31" t="n">
-        <v>1404.195194908919</v>
+        <v>1571.087805922787</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.510706703032</v>
+        <v>1316.4033177169</v>
       </c>
       <c r="W31" t="n">
-        <v>860.093536666071</v>
+        <v>1287.274458591366</v>
       </c>
       <c r="X31" t="n">
-        <v>632.1039857680537</v>
+        <v>1059.284907693349</v>
       </c>
       <c r="Y31" t="n">
-        <v>411.3114066245236</v>
+        <v>838.4923285498188</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2382.507135800644</v>
+        <v>2382.507135800645</v>
       </c>
       <c r="C32" t="n">
-        <v>2013.544618860232</v>
+        <v>2013.544618860234</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.278920253482</v>
+        <v>1655.278920253483</v>
       </c>
       <c r="E32" t="n">
         <v>1269.490667655238</v>
       </c>
       <c r="F32" t="n">
-        <v>858.5047628656303</v>
+        <v>858.5047628656309</v>
       </c>
       <c r="G32" t="n">
-        <v>443.2709066433551</v>
+        <v>443.2709066433559</v>
       </c>
       <c r="H32" t="n">
-        <v>144.0343063656777</v>
+        <v>144.0343063656784</v>
       </c>
       <c r="I32" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2674058038185</v>
+        <v>438.6730548241716</v>
       </c>
       <c r="K32" t="n">
-        <v>827.4276592187942</v>
+        <v>1073.273505924669</v>
       </c>
       <c r="L32" t="n">
-        <v>1666.982261561617</v>
+        <v>1666.982261561619</v>
       </c>
       <c r="M32" t="n">
-        <v>2172.736668836631</v>
+        <v>2172.736668836633</v>
       </c>
       <c r="N32" t="n">
-        <v>2691.288519550142</v>
+        <v>2691.288519550144</v>
       </c>
       <c r="O32" t="n">
-        <v>3544.599245982286</v>
+        <v>3544.599245982288</v>
       </c>
       <c r="P32" t="n">
-        <v>4235.205826043201</v>
+        <v>4235.205826043203</v>
       </c>
       <c r="Q32" t="n">
-        <v>4676.600846890115</v>
+        <v>4676.600846890117</v>
       </c>
       <c r="R32" t="n">
-        <v>4790.740009833002</v>
+        <v>4790.740009833004</v>
       </c>
       <c r="S32" t="n">
         <v>4676.771300602148</v>
       </c>
       <c r="T32" t="n">
-        <v>4470.086997926888</v>
+        <v>4470.086997926889</v>
       </c>
       <c r="U32" t="n">
-        <v>4216.543608715342</v>
+        <v>4216.543608715344</v>
       </c>
       <c r="V32" t="n">
-        <v>3885.480721371772</v>
+        <v>3885.480721371773</v>
       </c>
       <c r="W32" t="n">
-        <v>3532.712066101657</v>
+        <v>3532.712066101659</v>
       </c>
       <c r="X32" t="n">
-        <v>3159.246307840578</v>
+        <v>3159.246307840579</v>
       </c>
       <c r="Y32" t="n">
-        <v>2769.106975864766</v>
+        <v>2769.106975864767</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>107.5674191834912</v>
       </c>
       <c r="I33" t="n">
-        <v>95.81480019666003</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="J33" t="n">
-        <v>181.4953231686123</v>
+        <v>306.3254481556171</v>
       </c>
       <c r="K33" t="n">
-        <v>406.0918086455154</v>
+        <v>530.9219336325201</v>
       </c>
       <c r="L33" t="n">
-        <v>880.4991328650373</v>
+        <v>879.2421664391964</v>
       </c>
       <c r="M33" t="n">
-        <v>1306.329283518704</v>
+        <v>1305.072317092863</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.838536078761</v>
+        <v>1756.58156965292</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.661497480102</v>
+        <v>2147.404531054261</v>
       </c>
       <c r="P33" t="n">
-        <v>2442.998313322315</v>
+        <v>2441.741346896474</v>
       </c>
       <c r="Q33" t="n">
         <v>2589.835483490189</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3616.207756718367</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="C34" t="n">
-        <v>3562.386417158067</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="D34" t="n">
-        <v>3562.386417158067</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="E34" t="n">
-        <v>3414.473323575674</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="F34" t="n">
-        <v>3267.583376077764</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="G34" t="n">
-        <v>3099.808138247307</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="H34" t="n">
-        <v>3099.808138247307</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="I34" t="n">
-        <v>3000.305159368187</v>
+        <v>95.81480019666007</v>
       </c>
       <c r="J34" t="n">
-        <v>3040.410890036798</v>
+        <v>135.9205308652715</v>
       </c>
       <c r="K34" t="n">
-        <v>3236.153762232559</v>
+        <v>331.6634030610319</v>
       </c>
       <c r="L34" t="n">
-        <v>3542.163681333914</v>
+        <v>637.6733221623872</v>
       </c>
       <c r="M34" t="n">
-        <v>3875.197358364138</v>
+        <v>970.7069991926107</v>
       </c>
       <c r="N34" t="n">
-        <v>4205.746855343305</v>
+        <v>1301.256496171777</v>
       </c>
       <c r="O34" t="n">
-        <v>4495.046521275498</v>
+        <v>1590.556162103971</v>
       </c>
       <c r="P34" t="n">
-        <v>4719.071681313269</v>
+        <v>1814.581322141742</v>
       </c>
       <c r="Q34" t="n">
-        <v>4790.740009833002</v>
+        <v>1886.249650661475</v>
       </c>
       <c r="R34" t="n">
-        <v>4790.740009833002</v>
+        <v>1886.249650661475</v>
       </c>
       <c r="S34" t="n">
-        <v>4790.740009833002</v>
+        <v>1781.529835376704</v>
       </c>
       <c r="T34" t="n">
-        <v>4790.740009833002</v>
+        <v>1559.453869342297</v>
       </c>
       <c r="U34" t="n">
-        <v>4790.740009833002</v>
+        <v>1270.347053311295</v>
       </c>
       <c r="V34" t="n">
-        <v>4536.055521627115</v>
+        <v>1015.662565105408</v>
       </c>
       <c r="W34" t="n">
-        <v>4246.638351590154</v>
+        <v>726.2453950684472</v>
       </c>
       <c r="X34" t="n">
-        <v>4018.648800692137</v>
+        <v>498.2558441704299</v>
       </c>
       <c r="Y34" t="n">
-        <v>3797.856221548607</v>
+        <v>277.4632650268998</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1696.22670858975</v>
       </c>
       <c r="D35" t="n">
-        <v>1388.685343167566</v>
+        <v>1388.685343167567</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.621423753888</v>
+        <v>1053.621423753889</v>
       </c>
       <c r="F35" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488479</v>
       </c>
       <c r="G35" t="n">
-        <v>328.8503291111392</v>
+        <v>328.8503291111393</v>
       </c>
       <c r="H35" t="n">
-        <v>80.33806201802838</v>
+        <v>80.3380620180284</v>
       </c>
       <c r="I35" t="n">
-        <v>80.33806201802838</v>
+        <v>80.3380620180284</v>
       </c>
       <c r="J35" t="n">
         <v>423.1963166455399</v>
@@ -6946,22 +6946,22 @@
         <v>1162.962809238461</v>
       </c>
       <c r="M35" t="n">
-        <v>2113.735614671379</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N35" t="n">
-        <v>2632.28746538489</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O35" t="n">
-        <v>3108.606012366916</v>
+        <v>2770.762337050704</v>
       </c>
       <c r="P35" t="n">
-        <v>3480.631871338063</v>
+        <v>3461.368917111619</v>
       </c>
       <c r="Q35" t="n">
         <v>3902.763937958533</v>
       </c>
       <c r="R35" t="n">
-        <v>4016.903100901419</v>
+        <v>4016.90310090142</v>
       </c>
       <c r="S35" t="n">
         <v>3953.658724855131</v>
@@ -6970,19 +6970,19 @@
         <v>3797.698755364439</v>
       </c>
       <c r="U35" t="n">
-        <v>3594.879699337459</v>
+        <v>3594.879699337461</v>
       </c>
       <c r="V35" t="n">
-        <v>3314.541145178455</v>
+        <v>3314.541145178457</v>
       </c>
       <c r="W35" t="n">
-        <v>3012.496823092908</v>
+        <v>3012.496823092909</v>
       </c>
       <c r="X35" t="n">
-        <v>2689.755398016395</v>
+        <v>2689.755398016396</v>
       </c>
       <c r="Y35" t="n">
-        <v>2350.34039922515</v>
+        <v>2350.340399225151</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>319.8760898262431</v>
       </c>
       <c r="G36" t="n">
-        <v>183.4266297993771</v>
+        <v>183.4266297993772</v>
       </c>
       <c r="H36" t="n">
-        <v>92.09068100485955</v>
+        <v>92.09068100485956</v>
       </c>
       <c r="I36" t="n">
-        <v>80.33806201802838</v>
+        <v>80.3380620180284</v>
       </c>
       <c r="J36" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K36" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L36" t="n">
-        <v>738.93530327356</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.765453927226</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N36" t="n">
-        <v>1616.274706487284</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P36" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q36" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R36" t="n">
         <v>2574.358745311557</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>753.2627091716159</v>
+        <v>753.2627091716154</v>
       </c>
       <c r="C37" t="n">
-        <v>635.0508594282758</v>
+        <v>635.0508594282751</v>
       </c>
       <c r="D37" t="n">
-        <v>535.6585532005067</v>
+        <v>535.658553200506</v>
       </c>
       <c r="E37" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026796</v>
       </c>
       <c r="F37" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G37" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H37" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I37" t="n">
-        <v>80.33806201802838</v>
+        <v>80.3380620180284</v>
       </c>
       <c r="J37" t="n">
-        <v>170.1587116408332</v>
+        <v>170.1587116408336</v>
       </c>
       <c r="K37" t="n">
-        <v>415.6165027907875</v>
+        <v>415.6165027907878</v>
       </c>
       <c r="L37" t="n">
-        <v>771.3413408463368</v>
+        <v>771.3413408463371</v>
       </c>
       <c r="M37" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N37" t="n">
         <v>1534.354352764115</v>
       </c>
       <c r="O37" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P37" t="n">
         <v>2147.109016642467</v>
@@ -7119,10 +7119,10 @@
         <v>2268.492264116394</v>
       </c>
       <c r="R37" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S37" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T37" t="n">
         <v>1912.555779209853</v>
@@ -7137,10 +7137,10 @@
         <v>1231.520304489703</v>
       </c>
       <c r="X37" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1868408172888</v>
+        <v>884.1868408172884</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1696.22670858975</v>
       </c>
       <c r="D38" t="n">
-        <v>1388.685343167567</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E38" t="n">
-        <v>1053.621423753889</v>
+        <v>1053.621423753888</v>
       </c>
       <c r="F38" t="n">
-        <v>693.3598521488484</v>
+        <v>693.3598521488475</v>
       </c>
       <c r="G38" t="n">
         <v>328.8503291111392</v>
@@ -7174,49 +7174,49 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J38" t="n">
-        <v>255.7906676251868</v>
+        <v>423.1963166455399</v>
       </c>
       <c r="K38" t="n">
-        <v>890.3911187256841</v>
+        <v>844.0675321422756</v>
       </c>
       <c r="L38" t="n">
-        <v>1316.461118663561</v>
+        <v>1270.137532080153</v>
       </c>
       <c r="M38" t="n">
-        <v>1822.215525938575</v>
+        <v>1775.891939355167</v>
       </c>
       <c r="N38" t="n">
-        <v>2340.767376652086</v>
+        <v>2294.443790068678</v>
       </c>
       <c r="O38" t="n">
-        <v>2835.821592724957</v>
+        <v>2770.762337050704</v>
       </c>
       <c r="P38" t="n">
-        <v>3526.428172785872</v>
+        <v>3461.368917111619</v>
       </c>
       <c r="Q38" t="n">
-        <v>3967.823193632786</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R38" t="n">
         <v>4016.903100901419</v>
       </c>
       <c r="S38" t="n">
-        <v>3953.658724855131</v>
+        <v>3953.65872485513</v>
       </c>
       <c r="T38" t="n">
-        <v>3797.698755364439</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U38" t="n">
-        <v>3594.87969933746</v>
+        <v>3594.879699337459</v>
       </c>
       <c r="V38" t="n">
         <v>3314.541145178456</v>
       </c>
       <c r="W38" t="n">
-        <v>3012.496823092909</v>
+        <v>3012.496823092908</v>
       </c>
       <c r="X38" t="n">
-        <v>2689.755398016396</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y38" t="n">
         <v>2350.34039922515</v>
@@ -7253,28 +7253,28 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J39" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K39" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L39" t="n">
-        <v>865.0223946864058</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M39" t="n">
-        <v>1290.852545340072</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N39" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P39" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q39" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R39" t="n">
         <v>2574.358745311557</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.2627091716159</v>
+        <v>753.2627091716163</v>
       </c>
       <c r="C40" t="n">
-        <v>635.0508594282758</v>
+        <v>635.0508594282761</v>
       </c>
       <c r="D40" t="n">
-        <v>535.6585532005067</v>
+        <v>535.6585532005071</v>
       </c>
       <c r="E40" t="n">
-        <v>438.4697928026804</v>
+        <v>438.4697928026806</v>
       </c>
       <c r="F40" t="n">
-        <v>342.3041784893368</v>
+        <v>342.3041784893369</v>
       </c>
       <c r="G40" t="n">
-        <v>225.2532738434468</v>
+        <v>225.2532738434469</v>
       </c>
       <c r="H40" t="n">
-        <v>129.1167077125819</v>
+        <v>129.116707712582</v>
       </c>
       <c r="I40" t="n">
         <v>80.33806201802838</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1587116408331</v>
+        <v>170.1587116408336</v>
       </c>
       <c r="K40" t="n">
-        <v>415.6165027907874</v>
+        <v>415.6165027907878</v>
       </c>
       <c r="L40" t="n">
-        <v>771.3413408463366</v>
+        <v>771.3413408463381</v>
       </c>
       <c r="M40" t="n">
-        <v>1154.089936830754</v>
+        <v>1154.089936830756</v>
       </c>
       <c r="N40" t="n">
-        <v>1534.354352764115</v>
+        <v>1534.354352764116</v>
       </c>
       <c r="O40" t="n">
-        <v>1873.368937650502</v>
+        <v>1873.368937650504</v>
       </c>
       <c r="P40" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642468</v>
       </c>
       <c r="Q40" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116395</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.130718596679</v>
+        <v>2226.13071859668</v>
       </c>
       <c r="S40" t="n">
-        <v>2083.907412059692</v>
+        <v>2083.907412059693</v>
       </c>
       <c r="T40" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.173296363417</v>
+        <v>1674.173296363418</v>
       </c>
       <c r="V40" t="n">
-        <v>1470.213141342097</v>
+        <v>1470.213141342098</v>
       </c>
       <c r="W40" t="n">
         <v>1231.520304489703</v>
       </c>
       <c r="X40" t="n">
-        <v>1054.255086776252</v>
+        <v>1054.255086776253</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1868408172888</v>
+        <v>884.1868408172893</v>
       </c>
     </row>
     <row r="41">
@@ -7414,25 +7414,25 @@
         <v>423.1963166455399</v>
       </c>
       <c r="K41" t="n">
-        <v>1057.796767746037</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L41" t="n">
-        <v>1483.866767683914</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M41" t="n">
-        <v>1989.621174958928</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N41" t="n">
-        <v>2508.173025672439</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O41" t="n">
-        <v>2984.491572654465</v>
+        <v>2770.762337050704</v>
       </c>
       <c r="P41" t="n">
-        <v>3675.09815271538</v>
+        <v>3461.368917111618</v>
       </c>
       <c r="Q41" t="n">
-        <v>3906.301332808989</v>
+        <v>3902.763937958533</v>
       </c>
       <c r="R41" t="n">
         <v>4016.903100901419</v>
@@ -7490,28 +7490,28 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J42" t="n">
-        <v>290.8487099769854</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K42" t="n">
-        <v>515.4451954538885</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L42" t="n">
-        <v>863.7654282605647</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M42" t="n">
-        <v>1290.852545340072</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N42" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O42" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P42" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q42" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R42" t="n">
         <v>2574.358745311557</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.2627091716167</v>
+        <v>753.2627091716158</v>
       </c>
       <c r="C43" t="n">
-        <v>635.0508594282766</v>
+        <v>635.0508594282757</v>
       </c>
       <c r="D43" t="n">
-        <v>535.6585532005076</v>
+        <v>535.6585532005066</v>
       </c>
       <c r="E43" t="n">
-        <v>438.4697928026812</v>
+        <v>438.4697928026802</v>
       </c>
       <c r="F43" t="n">
-        <v>342.3041784893376</v>
+        <v>342.3041784893366</v>
       </c>
       <c r="G43" t="n">
-        <v>225.2532738434476</v>
+        <v>225.2532738434468</v>
       </c>
       <c r="H43" t="n">
         <v>129.1167077125819</v>
@@ -7569,52 +7569,52 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J43" t="n">
-        <v>170.1587116408336</v>
+        <v>170.1587116408334</v>
       </c>
       <c r="K43" t="n">
-        <v>415.6165027907879</v>
+        <v>415.6165027907876</v>
       </c>
       <c r="L43" t="n">
-        <v>771.3413408463371</v>
+        <v>771.3413408463368</v>
       </c>
       <c r="M43" t="n">
-        <v>1154.089936830755</v>
+        <v>1154.089936830754</v>
       </c>
       <c r="N43" t="n">
-        <v>1534.354352764115</v>
+        <v>1534.354352764114</v>
       </c>
       <c r="O43" t="n">
-        <v>1873.368937650503</v>
+        <v>1873.368937650502</v>
       </c>
       <c r="P43" t="n">
-        <v>2147.109016642467</v>
+        <v>2147.109016642466</v>
       </c>
       <c r="Q43" t="n">
-        <v>2268.492264116394</v>
+        <v>2268.492264116393</v>
       </c>
       <c r="R43" t="n">
-        <v>2226.13071859668</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S43" t="n">
-        <v>2083.907412059693</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T43" t="n">
         <v>1912.555779209853</v>
       </c>
       <c r="U43" t="n">
-        <v>1674.173296363418</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V43" t="n">
-        <v>1470.213141342098</v>
+        <v>1470.213141342097</v>
       </c>
       <c r="W43" t="n">
-        <v>1231.520304489704</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X43" t="n">
-        <v>1054.255086776253</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1868408172897</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2014.464892345595</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.226708589751</v>
+        <v>1696.22670858975</v>
       </c>
       <c r="D44" t="n">
-        <v>1388.685343167567</v>
+        <v>1388.685343167566</v>
       </c>
       <c r="E44" t="n">
         <v>1053.621423753889</v>
       </c>
       <c r="F44" t="n">
-        <v>693.3598521488475</v>
+        <v>693.3598521488481</v>
       </c>
       <c r="G44" t="n">
         <v>328.8503291111392</v>
@@ -7651,22 +7651,22 @@
         <v>423.1963166455399</v>
       </c>
       <c r="K44" t="n">
-        <v>844.0675321422756</v>
+        <v>736.8928093005841</v>
       </c>
       <c r="L44" t="n">
-        <v>1270.137532080153</v>
+        <v>1162.962809238461</v>
       </c>
       <c r="M44" t="n">
-        <v>1775.891939355167</v>
+        <v>1668.717216513475</v>
       </c>
       <c r="N44" t="n">
-        <v>2294.443790068678</v>
+        <v>2187.269067226986</v>
       </c>
       <c r="O44" t="n">
         <v>2770.762337050704</v>
       </c>
       <c r="P44" t="n">
-        <v>3461.368917111619</v>
+        <v>3461.368917111618</v>
       </c>
       <c r="Q44" t="n">
         <v>3902.763937958533</v>
@@ -7675,25 +7675,25 @@
         <v>4016.903100901419</v>
       </c>
       <c r="S44" t="n">
-        <v>3953.658724855131</v>
+        <v>3953.65872485513</v>
       </c>
       <c r="T44" t="n">
-        <v>3797.698755364439</v>
+        <v>3797.698755364438</v>
       </c>
       <c r="U44" t="n">
-        <v>3594.87969933746</v>
+        <v>3594.879699337459</v>
       </c>
       <c r="V44" t="n">
         <v>3314.541145178456</v>
       </c>
       <c r="W44" t="n">
-        <v>3012.496823092909</v>
+        <v>3012.496823092908</v>
       </c>
       <c r="X44" t="n">
-        <v>2689.755398016396</v>
+        <v>2689.755398016395</v>
       </c>
       <c r="Y44" t="n">
-        <v>2350.340399225151</v>
+        <v>2350.34039922515</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>80.33806201802838</v>
       </c>
       <c r="J45" t="n">
-        <v>166.0185849899807</v>
+        <v>252.43588923296</v>
       </c>
       <c r="K45" t="n">
-        <v>390.6150704668837</v>
+        <v>477.032374709863</v>
       </c>
       <c r="L45" t="n">
-        <v>738.93530327356</v>
+        <v>825.3526075165393</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.765453927226</v>
+        <v>1251.182758170206</v>
       </c>
       <c r="N45" t="n">
-        <v>1742.361797900129</v>
+        <v>1702.692010730263</v>
       </c>
       <c r="O45" t="n">
-        <v>2133.184759301471</v>
+        <v>2093.514972131604</v>
       </c>
       <c r="P45" t="n">
-        <v>2427.521575143683</v>
+        <v>2387.851787973816</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.358745311557</v>
+        <v>2534.688958141691</v>
       </c>
       <c r="R45" t="n">
         <v>2574.358745311557</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2501.67354595664</v>
+        <v>753.2627091716159</v>
       </c>
       <c r="C46" t="n">
-        <v>2383.4616962133</v>
+        <v>635.0508594282758</v>
       </c>
       <c r="D46" t="n">
-        <v>2284.069389985531</v>
+        <v>535.6585532005067</v>
       </c>
       <c r="E46" t="n">
-        <v>2186.880629587705</v>
+        <v>438.4697928026804</v>
       </c>
       <c r="F46" t="n">
-        <v>2090.715015274361</v>
+        <v>342.3041784893368</v>
       </c>
       <c r="G46" t="n">
-        <v>1973.664110628471</v>
+        <v>225.2532738434468</v>
       </c>
       <c r="H46" t="n">
-        <v>1877.527544497606</v>
+        <v>129.1167077125819</v>
       </c>
       <c r="I46" t="n">
-        <v>1828.748898803053</v>
+        <v>80.33806201802838</v>
       </c>
       <c r="J46" t="n">
-        <v>1918.569548425858</v>
+        <v>170.1587116408337</v>
       </c>
       <c r="K46" t="n">
-        <v>2164.027339575813</v>
+        <v>415.6165027907879</v>
       </c>
       <c r="L46" t="n">
-        <v>2519.752177631362</v>
+        <v>771.3413408463372</v>
       </c>
       <c r="M46" t="n">
-        <v>2902.50077361578</v>
+        <v>1154.089936830755</v>
       </c>
       <c r="N46" t="n">
-        <v>3282.76518954914</v>
+        <v>1534.354352764115</v>
       </c>
       <c r="O46" t="n">
-        <v>3621.779774435528</v>
+        <v>1873.368937650503</v>
       </c>
       <c r="P46" t="n">
-        <v>3895.519853427492</v>
+        <v>2147.109016642467</v>
       </c>
       <c r="Q46" t="n">
-        <v>4016.903100901419</v>
+        <v>2268.492264116394</v>
       </c>
       <c r="R46" t="n">
-        <v>3974.541555381705</v>
+        <v>2226.130718596679</v>
       </c>
       <c r="S46" t="n">
-        <v>3832.318248844718</v>
+        <v>2083.907412059692</v>
       </c>
       <c r="T46" t="n">
-        <v>3660.966615994877</v>
+        <v>1912.555779209853</v>
       </c>
       <c r="U46" t="n">
-        <v>3422.584133148441</v>
+        <v>1674.173296363417</v>
       </c>
       <c r="V46" t="n">
-        <v>3218.623978127121</v>
+        <v>1470.213141342096</v>
       </c>
       <c r="W46" t="n">
-        <v>2979.931141274727</v>
+        <v>1231.520304489703</v>
       </c>
       <c r="X46" t="n">
-        <v>2802.665923561276</v>
+        <v>1054.255086776252</v>
       </c>
       <c r="Y46" t="n">
-        <v>2632.597677602313</v>
+        <v>884.1868408172888</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>245.0306783175538</v>
@@ -7993,10 +7993,10 @@
         <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O5" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>146.0261571736144</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>10.00928163284595</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>108.2572957996887</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.269663056405193</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.45117772054661</v>
+        <v>5.451177720546639</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>105.9105914000064</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>108.2572957996867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.29020630603972</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>127.3606983968135</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.45117772054661</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>22.17589071369611</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>46.25889035132241</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.269663056405193</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>108.8687203689207</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>108.2572957996896</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>427.6704961832995</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>108.2572957996896</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.29020630603969</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>169.3320764637092</v>
       </c>
       <c r="O26" t="n">
-        <v>338.682731718796</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>87.29020630603947</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>127.3606983968138</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,19 +10117,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>169.3320764637112</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>422.4174324051037</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>127.3606983968137</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>127.3606983968139</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>244.9128896564965</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>169.3320764637103</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>127.3606983968138</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1.269663056404852</v>
       </c>
       <c r="R33" t="n">
         <v>5.451177720546639</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>108.2572957996891</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>192.8574611382435</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.29020630603972</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>108.2572957996884</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>18.92491827358009</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.29020630603972</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>127.360698396814</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>108.2572957996882</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>62.14329376141042</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>87.29020630603972</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.269663056405193</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>108.2572957996884</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>108.2572957996882</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.29020630603972</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>127.3606983968141</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.451177720546639</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.162733856186</v>
+        <v>87.34554619241464</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.15501991723846</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.58782527050457</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.3922903222773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.50794909032905</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.15501991723846</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>191.0181633243382</v>
       </c>
       <c r="T31" t="n">
-        <v>219.8552063740624</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2157478706923</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>257.6854278023125</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>113.9636949339306</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0974854521522</v>
       </c>
       <c r="H34" t="n">
         <v>145.3922903222773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.50794909032905</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>92.15501991723846</v>
       </c>
       <c r="S34" t="n">
-        <v>191.0181633243382</v>
+        <v>87.34554619241483</v>
       </c>
       <c r="T34" t="n">
-        <v>219.8552063740624</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2157478706923</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666392.0204215763</v>
+        <v>666392.0204215765</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666392.0204215763</v>
+        <v>666392.0204215765</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666392.0204215763</v>
+        <v>666392.0204215765</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666392.0204215763</v>
+        <v>666392.0204215765</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="E2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="F2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="I2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="G2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="H2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176767</v>
-      </c>
       <c r="J2" t="n">
-        <v>772500.8806768743</v>
+        <v>772500.8806768741</v>
       </c>
       <c r="K2" t="n">
-        <v>772500.8806768743</v>
+        <v>772500.8806768742</v>
       </c>
       <c r="L2" t="n">
-        <v>772500.8806768743</v>
+        <v>772500.8806768742</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176763</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54621.31550453376</v>
+        <v>54621.31550453373</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.156268111430108e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>238406.4353083678</v>
+        <v>238406.435308368</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>81418.75251059834</v>
+        <v>81418.7525105984</v>
       </c>
       <c r="F4" t="n">
+        <v>81418.75251059838</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81418.75251059842</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81418.7525105984</v>
+      </c>
+      <c r="I4" t="n">
         <v>81418.75251059837</v>
       </c>
-      <c r="G4" t="n">
-        <v>81418.75251059837</v>
-      </c>
-      <c r="H4" t="n">
-        <v>81418.75251059837</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>49168.78041078206</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49168.78041078207</v>
+      </c>
+      <c r="L4" t="n">
+        <v>49168.78041078206</v>
+      </c>
+      <c r="M4" t="n">
         <v>81418.7525105984</v>
       </c>
-      <c r="J4" t="n">
-        <v>49168.78041078207</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49168.78041078204</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49168.78041078204</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81418.75251059844</v>
-      </c>
       <c r="N4" t="n">
+        <v>81418.75251059838</v>
+      </c>
+      <c r="O4" t="n">
+        <v>81418.75251059838</v>
+      </c>
+      <c r="P4" t="n">
         <v>81418.75251059842</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81418.75251059842</v>
-      </c>
-      <c r="P4" t="n">
-        <v>81418.75251059844</v>
       </c>
     </row>
     <row r="5">
@@ -26484,22 +26484,22 @@
         <v>88169.24762968006</v>
       </c>
       <c r="G5" t="n">
-        <v>88169.24762968005</v>
+        <v>88169.24762968007</v>
       </c>
       <c r="H5" t="n">
-        <v>88169.24762968006</v>
+        <v>88169.24762968007</v>
       </c>
       <c r="I5" t="n">
-        <v>88169.24762968006</v>
+        <v>88169.24762968007</v>
       </c>
       <c r="J5" t="n">
         <v>95709.86811861172</v>
       </c>
       <c r="K5" t="n">
-        <v>95709.86811861172</v>
+        <v>95709.86811861175</v>
       </c>
       <c r="L5" t="n">
-        <v>95709.86811861172</v>
+        <v>95709.86811861173</v>
       </c>
       <c r="M5" t="n">
         <v>88169.24762968006</v>
@@ -26521,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352706.3390827482</v>
+        <v>352706.3390827484</v>
       </c>
       <c r="C6" t="n">
-        <v>357834.6383870333</v>
+        <v>357834.6383870331</v>
       </c>
       <c r="D6" t="n">
         <v>357834.6383870333</v>
@@ -26533,37 +26533,37 @@
         <v>-548112.6070974452</v>
       </c>
       <c r="F6" t="n">
+        <v>630927.7254773979</v>
+      </c>
+      <c r="G6" t="n">
+        <v>630927.7254773977</v>
+      </c>
+      <c r="H6" t="n">
+        <v>630927.7254773977</v>
+      </c>
+      <c r="I6" t="n">
         <v>630927.7254773978</v>
       </c>
-      <c r="G6" t="n">
-        <v>630927.7254773979</v>
-      </c>
-      <c r="H6" t="n">
-        <v>630927.7254773979</v>
-      </c>
-      <c r="I6" t="n">
-        <v>630927.7254773983</v>
-      </c>
       <c r="J6" t="n">
-        <v>573000.9166429467</v>
+        <v>572282.5872854901</v>
       </c>
       <c r="K6" t="n">
-        <v>627622.2321474805</v>
+        <v>626903.9027900238</v>
       </c>
       <c r="L6" t="n">
-        <v>627622.2321474805</v>
+        <v>626903.9027900239</v>
       </c>
       <c r="M6" t="n">
-        <v>392521.2901690303</v>
+        <v>392521.2901690296</v>
       </c>
       <c r="N6" t="n">
-        <v>630927.7254773979</v>
+        <v>630927.7254773977</v>
       </c>
       <c r="O6" t="n">
-        <v>630927.7254773979</v>
+        <v>630927.7254773978</v>
       </c>
       <c r="P6" t="n">
-        <v>630927.7254773981</v>
+        <v>630927.7254773978</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>50.21708985272103</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.21708985272103</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.21708985272101</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50.21708985272101</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.21708985272101</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>50.21708985272102</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50.21708985272102</v>
+      </c>
+      <c r="O2" t="n">
         <v>50.21708985272105</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50.21708985272105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.21708985272108</v>
-      </c>
-      <c r="N2" t="n">
-        <v>50.21708985272108</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50.21708985272108</v>
       </c>
       <c r="P2" t="n">
         <v>50.21708985272108</v>
@@ -26798,13 +26798,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>1004.225775225354</v>
+        <v>1004.225775225355</v>
       </c>
       <c r="F4" t="n">
-        <v>1004.225775225354</v>
+        <v>1004.225775225355</v>
       </c>
       <c r="G4" t="n">
-        <v>1004.225775225354</v>
+        <v>1004.225775225355</v>
       </c>
       <c r="H4" t="n">
         <v>1004.225775225355</v>
@@ -26816,10 +26816,10 @@
         <v>1197.685002458251</v>
       </c>
       <c r="K4" t="n">
-        <v>1197.68500245825</v>
+        <v>1197.685002458251</v>
       </c>
       <c r="L4" t="n">
-        <v>1197.68500245825</v>
+        <v>1197.685002458251</v>
       </c>
       <c r="M4" t="n">
         <v>1004.225775225355</v>
@@ -26916,31 +26916,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>50.21708985272103</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>50.21708985272105</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.21708985272108</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>988.9230377102194</v>
+        <v>988.9230377102198</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>208.7619647480308</v>
+        <v>208.7619647480307</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>795.4638104773235</v>
+        <v>795.4638104773244</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>988.9230377102194</v>
+        <v>988.9230377102198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.1720646006321</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27423,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>199.0640159641033</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>236.0775609851042</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>87.42577427557005</v>
       </c>
       <c r="S3" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>186.6860774914907</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.9423968196003</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>212.2310041857062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>198.5612458081962</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.7530167286268</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.2304461347323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,16 +27754,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>193.0409253264044</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.2040445739734</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.9553114432382</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27815,19 +27815,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>70.85930573655934</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>217.1883789600571</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4657497407483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>372.7592874527226</v>
       </c>
     </row>
     <row r="9">
@@ -27937,13 +27937,13 @@
         <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F9" t="n">
-        <v>131.5905611900529</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.9511112267647</v>
       </c>
       <c r="T9" t="n">
-        <v>184.8619911796866</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.1477374121232</v>
+        <v>144.6932644590339</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
         <v>6.966754310747802</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>275.7657878683665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="C11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="D11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="E11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="F11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="G11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="H11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="I11" t="n">
-        <v>47.7373111073274</v>
+        <v>47.73731110732743</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="T11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="U11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="V11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="W11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="X11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="C13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="D13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="E13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="F13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="G13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="H13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="I13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="J13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="K13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="L13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="M13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="N13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="O13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="P13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="R13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="S13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="T13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="U13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="V13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="W13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="X13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="C14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="D14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="E14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="F14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="G14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="H14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="I14" t="n">
-        <v>47.7373111073274</v>
+        <v>47.73731110732743</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="T14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="U14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="V14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="W14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="X14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="C16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="D16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="E16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="F16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="G16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="H16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="I16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="J16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="K16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="L16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="M16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="N16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="O16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="P16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="R16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="S16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="T16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="U16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="V16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="W16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="X16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272103</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="F17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I17" t="n">
         <v>47.73731110732743</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="F19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="J19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="K19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="L19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="M19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="N19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="O19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="P19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272204</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="R19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="F20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I20" t="n">
         <v>47.73731110732743</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="F22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="J22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="K22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="L22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="M22" t="n">
-        <v>50.21708985272068</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="N22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="O22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="P22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272204</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="R22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272045</v>
       </c>
       <c r="F23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I23" t="n">
         <v>47.73731110732743</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="C25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="D25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="E25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="F25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="G25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="H25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="I25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="J25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="K25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="L25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="M25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="N25" t="n">
-        <v>50.21708985272051</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="O25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="P25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="R25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="T25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="U25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="V25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="W25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="X25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.21708985272105</v>
+        <v>50.21708985272101</v>
       </c>
     </row>
     <row r="26">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-6.870844123537169e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I35" t="n">
         <v>47.73731110732743</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="K37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="L37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="M37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="N37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="O37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="P37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="R37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="S37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I38" t="n">
         <v>47.73731110732743</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="C40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="D40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="E40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="F40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="G40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="H40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="I40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="J40" t="n">
-        <v>50.21708985272052</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="K40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="L40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272215</v>
       </c>
       <c r="M40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="N40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="O40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="P40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="R40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="S40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="T40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="U40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="V40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="W40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="X40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272102</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="C41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="D41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="E41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="F41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="G41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="H41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="I41" t="n">
         <v>47.73731110732743</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="T41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="U41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="V41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="W41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="X41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="C43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="D43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="E43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="F43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="G43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="H43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="I43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="J43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="K43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="L43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="M43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="N43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="O43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="P43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="R43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="S43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="T43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="U43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="V43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="W43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="X43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.21708985272108</v>
+        <v>50.21708985272105</v>
       </c>
     </row>
     <row r="44">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.221219855082767</v>
+        <v>4.221219855082766</v>
       </c>
       <c r="H11" t="n">
         <v>43.23056784086639</v>
@@ -31761,40 +31761,40 @@
         <v>162.7385784630785</v>
       </c>
       <c r="J11" t="n">
-        <v>358.2707586753313</v>
+        <v>358.2707586753312</v>
       </c>
       <c r="K11" t="n">
-        <v>536.9549951409849</v>
+        <v>536.9549951409848</v>
       </c>
       <c r="L11" t="n">
-        <v>666.1401522809742</v>
+        <v>666.1401522809741</v>
       </c>
       <c r="M11" t="n">
-        <v>741.2092708788024</v>
+        <v>741.2092708788023</v>
       </c>
       <c r="N11" t="n">
-        <v>753.2028117920564</v>
+        <v>753.2028117920562</v>
       </c>
       <c r="O11" t="n">
-        <v>711.228056858077</v>
+        <v>711.2280568580769</v>
       </c>
       <c r="P11" t="n">
-        <v>607.0166916857212</v>
+        <v>607.0166916857211</v>
       </c>
       <c r="Q11" t="n">
         <v>455.8442556255694</v>
       </c>
       <c r="R11" t="n">
-        <v>265.1612017218431</v>
+        <v>265.161201721843</v>
       </c>
       <c r="S11" t="n">
-        <v>96.19104744769864</v>
+        <v>96.19104744769862</v>
       </c>
       <c r="T11" t="n">
         <v>18.47838991562482</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3376975884066213</v>
+        <v>0.3376975884066212</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.25855173661339</v>
+        <v>2.258551736613389</v>
       </c>
       <c r="H12" t="n">
-        <v>21.81285492992406</v>
+        <v>21.81285492992405</v>
       </c>
       <c r="I12" t="n">
-        <v>77.76154005445224</v>
+        <v>77.76154005445223</v>
       </c>
       <c r="J12" t="n">
-        <v>213.3836094666186</v>
+        <v>213.3836094666185</v>
       </c>
       <c r="K12" t="n">
-        <v>364.7065758197157</v>
+        <v>364.7065758197156</v>
       </c>
       <c r="L12" t="n">
-        <v>490.3929987765169</v>
+        <v>490.3929987765168</v>
       </c>
       <c r="M12" t="n">
-        <v>572.2654992287522</v>
+        <v>572.2654992287521</v>
       </c>
       <c r="N12" t="n">
-        <v>587.4116641641991</v>
+        <v>587.411664164199</v>
       </c>
       <c r="O12" t="n">
-        <v>537.3669125266076</v>
+        <v>537.3669125266075</v>
       </c>
       <c r="P12" t="n">
-        <v>431.2843224064639</v>
+        <v>431.2843224064638</v>
       </c>
       <c r="Q12" t="n">
         <v>288.3021479929653</v>
@@ -31867,10 +31867,10 @@
         <v>140.2283262434173</v>
       </c>
       <c r="S12" t="n">
-        <v>41.95160791472675</v>
+        <v>41.95160791472674</v>
       </c>
       <c r="T12" t="n">
-        <v>9.103548447139055</v>
+        <v>9.103548447139051</v>
       </c>
       <c r="U12" t="n">
         <v>0.1485889300403546</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.893493906306595</v>
+        <v>1.893493906306594</v>
       </c>
       <c r="H13" t="n">
         <v>16.83488218516228</v>
       </c>
       <c r="I13" t="n">
-        <v>56.94252583692925</v>
+        <v>56.94252583692924</v>
       </c>
       <c r="J13" t="n">
-        <v>133.8700191758763</v>
+        <v>133.8700191758762</v>
       </c>
       <c r="K13" t="n">
         <v>219.9895647508934</v>
       </c>
       <c r="L13" t="n">
-        <v>281.5109031248914</v>
+        <v>281.5109031248913</v>
       </c>
       <c r="M13" t="n">
-        <v>296.8137766040419</v>
+        <v>296.8137766040418</v>
       </c>
       <c r="N13" t="n">
-        <v>289.7562084078085</v>
+        <v>289.7562084078084</v>
       </c>
       <c r="O13" t="n">
-        <v>267.6367568659541</v>
+        <v>267.636756865954</v>
       </c>
       <c r="P13" t="n">
         <v>229.0094811772993</v>
@@ -31943,16 +31943,16 @@
         <v>158.5542942817277</v>
       </c>
       <c r="R13" t="n">
-        <v>85.13837145993105</v>
+        <v>85.13837145993102</v>
       </c>
       <c r="S13" t="n">
-        <v>32.99843471263401</v>
+        <v>32.998434712634</v>
       </c>
       <c r="T13" t="n">
-        <v>8.090383054219085</v>
+        <v>8.090383054219084</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1032814857985417</v>
+        <v>0.1032814857985416</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.221219855082767</v>
+        <v>4.221219855082766</v>
       </c>
       <c r="H14" t="n">
         <v>43.23056784086639</v>
@@ -31998,40 +31998,40 @@
         <v>162.7385784630785</v>
       </c>
       <c r="J14" t="n">
-        <v>358.2707586753313</v>
+        <v>358.2707586753312</v>
       </c>
       <c r="K14" t="n">
-        <v>536.9549951409849</v>
+        <v>536.9549951409848</v>
       </c>
       <c r="L14" t="n">
-        <v>666.1401522809742</v>
+        <v>666.1401522809741</v>
       </c>
       <c r="M14" t="n">
-        <v>741.2092708788024</v>
+        <v>741.2092708788023</v>
       </c>
       <c r="N14" t="n">
-        <v>753.2028117920564</v>
+        <v>753.2028117920562</v>
       </c>
       <c r="O14" t="n">
-        <v>711.228056858077</v>
+        <v>711.2280568580769</v>
       </c>
       <c r="P14" t="n">
-        <v>607.0166916857212</v>
+        <v>607.0166916857211</v>
       </c>
       <c r="Q14" t="n">
         <v>455.8442556255694</v>
       </c>
       <c r="R14" t="n">
-        <v>265.1612017218431</v>
+        <v>265.161201721843</v>
       </c>
       <c r="S14" t="n">
-        <v>96.19104744769864</v>
+        <v>96.19104744769862</v>
       </c>
       <c r="T14" t="n">
         <v>18.47838991562482</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3376975884066213</v>
+        <v>0.3376975884066212</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.25855173661339</v>
+        <v>2.258551736613389</v>
       </c>
       <c r="H15" t="n">
-        <v>21.81285492992406</v>
+        <v>21.81285492992405</v>
       </c>
       <c r="I15" t="n">
-        <v>77.76154005445224</v>
+        <v>77.76154005445223</v>
       </c>
       <c r="J15" t="n">
-        <v>213.3836094666186</v>
+        <v>213.3836094666185</v>
       </c>
       <c r="K15" t="n">
-        <v>364.7065758197157</v>
+        <v>364.7065758197156</v>
       </c>
       <c r="L15" t="n">
-        <v>490.3929987765169</v>
+        <v>490.3929987765168</v>
       </c>
       <c r="M15" t="n">
-        <v>572.2654992287522</v>
+        <v>572.2654992287521</v>
       </c>
       <c r="N15" t="n">
-        <v>587.4116641641991</v>
+        <v>587.411664164199</v>
       </c>
       <c r="O15" t="n">
-        <v>537.3669125266076</v>
+        <v>537.3669125266075</v>
       </c>
       <c r="P15" t="n">
-        <v>431.2843224064639</v>
+        <v>431.2843224064638</v>
       </c>
       <c r="Q15" t="n">
         <v>288.3021479929653</v>
@@ -32104,10 +32104,10 @@
         <v>140.2283262434173</v>
       </c>
       <c r="S15" t="n">
-        <v>41.95160791472675</v>
+        <v>41.95160791472674</v>
       </c>
       <c r="T15" t="n">
-        <v>9.103548447139055</v>
+        <v>9.103548447139051</v>
       </c>
       <c r="U15" t="n">
         <v>0.1485889300403546</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.893493906306595</v>
+        <v>1.893493906306594</v>
       </c>
       <c r="H16" t="n">
         <v>16.83488218516228</v>
       </c>
       <c r="I16" t="n">
-        <v>56.94252583692925</v>
+        <v>56.94252583692924</v>
       </c>
       <c r="J16" t="n">
-        <v>133.8700191758763</v>
+        <v>133.8700191758762</v>
       </c>
       <c r="K16" t="n">
         <v>219.9895647508934</v>
       </c>
       <c r="L16" t="n">
-        <v>281.5109031248914</v>
+        <v>281.5109031248913</v>
       </c>
       <c r="M16" t="n">
-        <v>296.8137766040419</v>
+        <v>296.8137766040418</v>
       </c>
       <c r="N16" t="n">
-        <v>289.7562084078085</v>
+        <v>289.7562084078084</v>
       </c>
       <c r="O16" t="n">
-        <v>267.6367568659541</v>
+        <v>267.636756865954</v>
       </c>
       <c r="P16" t="n">
         <v>229.0094811772993</v>
@@ -32180,16 +32180,16 @@
         <v>158.5542942817277</v>
       </c>
       <c r="R16" t="n">
-        <v>85.13837145993105</v>
+        <v>85.13837145993102</v>
       </c>
       <c r="S16" t="n">
-        <v>32.99843471263401</v>
+        <v>32.998434712634</v>
       </c>
       <c r="T16" t="n">
-        <v>8.090383054219085</v>
+        <v>8.090383054219084</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1032814857985417</v>
+        <v>0.1032814857985416</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>14.68444509028111</v>
@@ -34713,10 +34713,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L3" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="O5" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.224854148645</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K11" t="n">
-        <v>326.8744257288503</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L11" t="n">
-        <v>848.0349518614374</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M11" t="n">
-        <v>960.3765711443622</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N11" t="n">
-        <v>523.7897481954656</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O11" t="n">
-        <v>481.1298454363903</v>
+        <v>589.3871412360788</v>
       </c>
       <c r="P11" t="n">
-        <v>375.7836959304516</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R11" t="n">
-        <v>49.57566390771098</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.54598279995187</v>
+        <v>212.6370181403607</v>
       </c>
       <c r="K12" t="n">
-        <v>226.8651368453567</v>
+        <v>228.1347999017618</v>
       </c>
       <c r="L12" t="n">
-        <v>351.8386189966428</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M12" t="n">
-        <v>557.4921637035474</v>
+        <v>430.1314653067338</v>
       </c>
       <c r="N12" t="n">
-        <v>456.0699520808658</v>
+        <v>456.0699520808657</v>
       </c>
       <c r="O12" t="n">
-        <v>394.7706680821632</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P12" t="n">
-        <v>297.3099149921337</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q12" t="n">
         <v>148.3203739069438</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192448</v>
       </c>
       <c r="K13" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L13" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O13" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>346.3214693207188</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K14" t="n">
-        <v>316.8651440960044</v>
+        <v>641.010556667169</v>
       </c>
       <c r="L14" t="n">
-        <v>430.373737310987</v>
+        <v>536.2843287109932</v>
       </c>
       <c r="M14" t="n">
-        <v>510.8630376515297</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N14" t="n">
-        <v>523.7897481954656</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O14" t="n">
-        <v>589.387141236077</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P14" t="n">
-        <v>697.5824041019343</v>
+        <v>375.7836959304515</v>
       </c>
       <c r="Q14" t="n">
         <v>445.8535564110246</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.54598279995187</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K15" t="n">
-        <v>226.8651368453567</v>
+        <v>226.8651368453566</v>
       </c>
       <c r="L15" t="n">
-        <v>479.1993173934562</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M15" t="n">
-        <v>430.1314653067339</v>
+        <v>430.1314653067338</v>
       </c>
       <c r="N15" t="n">
-        <v>456.0699520808658</v>
+        <v>456.0699520808657</v>
       </c>
       <c r="O15" t="n">
-        <v>394.7706680821632</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P15" t="n">
-        <v>297.3099149921337</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q15" t="n">
         <v>148.3203739069438</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192448</v>
       </c>
       <c r="K16" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L16" t="n">
-        <v>359.3180182379286</v>
+        <v>359.3180182379285</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6147434186036</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N16" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O16" t="n">
-        <v>342.4389746327148</v>
+        <v>342.4389746327147</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5051302949139</v>
+        <v>276.5051302949138</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K17" t="n">
         <v>316.8651440960043</v>
       </c>
       <c r="L17" t="n">
-        <v>848.0349518614373</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M17" t="n">
-        <v>510.8630376515296</v>
+        <v>960.3765711443621</v>
       </c>
       <c r="N17" t="n">
-        <v>961.1366726074494</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O17" t="n">
-        <v>503.3057361500863</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P17" t="n">
-        <v>375.7836959304515</v>
+        <v>422.0425862817739</v>
       </c>
       <c r="Q17" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R17" t="n">
         <v>49.57566390771092</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.54598279995182</v>
+        <v>212.6370181403607</v>
       </c>
       <c r="K18" t="n">
-        <v>226.8651368453566</v>
+        <v>228.1347999017618</v>
       </c>
       <c r="L18" t="n">
         <v>351.8386189966427</v>
@@ -35977,7 +35977,7 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O18" t="n">
-        <v>522.1313664789772</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P18" t="n">
         <v>297.3099149921335</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192447</v>
       </c>
       <c r="K19" t="n">
         <v>247.9371627777315</v>
@@ -36059,7 +36059,7 @@
         <v>342.4389746327147</v>
       </c>
       <c r="P19" t="n">
-        <v>276.5051302949138</v>
+        <v>276.5051302949148</v>
       </c>
       <c r="Q19" t="n">
         <v>122.6093408827543</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K20" t="n">
         <v>316.8651440960043</v>
       </c>
       <c r="L20" t="n">
-        <v>539.2424576799076</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M20" t="n">
         <v>510.8630376515296</v>
@@ -36135,13 +36135,13 @@
         <v>523.7897481954653</v>
       </c>
       <c r="O20" t="n">
-        <v>861.9300266991355</v>
+        <v>589.3871412360797</v>
       </c>
       <c r="P20" t="n">
         <v>697.5824041019341</v>
       </c>
       <c r="Q20" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R20" t="n">
         <v>115.2920837806934</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K21" t="n">
         <v>226.8651368453566</v>
@@ -36214,7 +36214,7 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1313664789772</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P21" t="n">
         <v>297.3099149921335</v>
@@ -36223,7 +36223,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192447</v>
       </c>
       <c r="K22" t="n">
         <v>247.9371627777315</v>
@@ -36287,7 +36287,7 @@
         <v>359.3180182379285</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6147434186031</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N22" t="n">
         <v>384.105470639758</v>
@@ -36296,7 +36296,7 @@
         <v>342.4389746327147</v>
       </c>
       <c r="P22" t="n">
-        <v>276.5051302949138</v>
+        <v>276.5051302949148</v>
       </c>
       <c r="Q22" t="n">
         <v>122.6093408827543</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K23" t="n">
         <v>316.8651440960043</v>
@@ -36366,22 +36366,22 @@
         <v>430.3737373109869</v>
       </c>
       <c r="M23" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N23" t="n">
-        <v>951.4602443787649</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O23" t="n">
-        <v>481.1298454363902</v>
+        <v>589.3871412360797</v>
       </c>
       <c r="P23" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R23" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K24" t="n">
         <v>226.8651368453566</v>
       </c>
       <c r="L24" t="n">
-        <v>479.1993173934567</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M24" t="n">
         <v>430.1314653067338</v>
@@ -36460,7 +36460,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.72792891192449</v>
+        <v>90.72792891192447</v>
       </c>
       <c r="K25" t="n">
         <v>247.9371627777315</v>
@@ -36527,7 +36527,7 @@
         <v>386.6147434186034</v>
       </c>
       <c r="N25" t="n">
-        <v>384.1054706397575</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O25" t="n">
         <v>342.4389746327147</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K26" t="n">
-        <v>316.8651440960043</v>
+        <v>641.010556667169</v>
       </c>
       <c r="L26" t="n">
-        <v>848.0349518614373</v>
+        <v>430.3737373109869</v>
       </c>
       <c r="M26" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N26" t="n">
-        <v>961.1366726074494</v>
+        <v>693.1218246591745</v>
       </c>
       <c r="O26" t="n">
-        <v>819.8125771551862</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P26" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R26" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059913</v>
       </c>
       <c r="K27" t="n">
         <v>226.8651368453566</v>
@@ -36691,13 +36691,13 @@
         <v>394.7706680821631</v>
       </c>
       <c r="P27" t="n">
-        <v>424.6706133889473</v>
+        <v>297.3099149921335</v>
       </c>
       <c r="Q27" t="n">
         <v>148.3203739069438</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>641.010556667169</v>
       </c>
       <c r="L29" t="n">
-        <v>430.3737373109869</v>
+        <v>599.7058137746981</v>
       </c>
       <c r="M29" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N29" t="n">
-        <v>946.207180600569</v>
+        <v>523.7897481954653</v>
       </c>
       <c r="O29" t="n">
-        <v>481.1298454363902</v>
+        <v>861.9300266991355</v>
       </c>
       <c r="P29" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q29" t="n">
         <v>445.8535564110246</v>
@@ -36913,7 +36913,7 @@
         <v>86.54598279995182</v>
       </c>
       <c r="K30" t="n">
-        <v>226.8651368453566</v>
+        <v>354.2258352421703</v>
       </c>
       <c r="L30" t="n">
         <v>351.8386189966427</v>
@@ -36922,7 +36922,7 @@
         <v>430.1314653067338</v>
       </c>
       <c r="N30" t="n">
-        <v>583.4306504776796</v>
+        <v>456.0699520808657</v>
       </c>
       <c r="O30" t="n">
         <v>394.7706680821631</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K32" t="n">
-        <v>561.7780337525007</v>
+        <v>641.010556667169</v>
       </c>
       <c r="L32" t="n">
-        <v>848.0349518614373</v>
+        <v>599.7058137746972</v>
       </c>
       <c r="M32" t="n">
         <v>510.8630376515296</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.54598279995182</v>
+        <v>212.6370181403607</v>
       </c>
       <c r="K33" t="n">
         <v>226.8651368453566</v>
       </c>
       <c r="L33" t="n">
-        <v>479.1993173934565</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M33" t="n">
         <v>430.1314653067338</v>
@@ -37168,7 +37168,7 @@
         <v>297.3099149921335</v>
       </c>
       <c r="Q33" t="n">
-        <v>148.3203739069438</v>
+        <v>149.5900369633486</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>430.3737373109869</v>
       </c>
       <c r="M35" t="n">
-        <v>960.3765711443621</v>
+        <v>510.8630376515296</v>
       </c>
       <c r="N35" t="n">
         <v>523.7897481954653</v>
       </c>
       <c r="O35" t="n">
-        <v>481.1298454363902</v>
+        <v>589.3871412360793</v>
       </c>
       <c r="P35" t="n">
-        <v>375.7836959304515</v>
+        <v>697.5824041019341</v>
       </c>
       <c r="Q35" t="n">
-        <v>426.3960268893633</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R35" t="n">
         <v>115.2920837806934</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K36" t="n">
         <v>226.8651368453566</v>
@@ -37399,7 +37399,7 @@
         <v>456.0699520808657</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1313664789772</v>
+        <v>394.7706680821631</v>
       </c>
       <c r="P36" t="n">
         <v>297.3099149921335</v>
@@ -37408,7 +37408,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192447</v>
       </c>
       <c r="K37" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L37" t="n">
         <v>359.3180182379285</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6147434186035</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N37" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O37" t="n">
         <v>342.4389746327147</v>
@@ -37484,7 +37484,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>177.2248541486449</v>
+        <v>346.3214693207187</v>
       </c>
       <c r="K38" t="n">
-        <v>641.010556667169</v>
+        <v>425.1224398956927</v>
       </c>
       <c r="L38" t="n">
         <v>430.3737373109869</v>
@@ -37557,7 +37557,7 @@
         <v>523.7897481954653</v>
       </c>
       <c r="O38" t="n">
-        <v>500.0547637099702</v>
+        <v>481.1298454363902</v>
       </c>
       <c r="P38" t="n">
         <v>697.5824041019341</v>
@@ -37566,7 +37566,7 @@
         <v>445.8535564110246</v>
       </c>
       <c r="R38" t="n">
-        <v>49.57566390771092</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K39" t="n">
         <v>226.8651368453566</v>
       </c>
       <c r="L39" t="n">
-        <v>479.1993173934567</v>
+        <v>351.8386189966427</v>
       </c>
       <c r="M39" t="n">
         <v>430.1314653067338</v>
@@ -37645,7 +37645,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.72792891192397</v>
+        <v>90.72792891192447</v>
       </c>
       <c r="K40" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L40" t="n">
-        <v>359.3180182379285</v>
+        <v>359.3180182379296</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6147434186035</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N40" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O40" t="n">
         <v>342.4389746327147</v>
@@ -37721,7 +37721,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>346.3214693207187</v>
       </c>
       <c r="K41" t="n">
-        <v>641.010556667169</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L41" t="n">
         <v>430.3737373109869</v>
@@ -37794,16 +37794,16 @@
         <v>523.7897481954653</v>
       </c>
       <c r="O41" t="n">
-        <v>481.1298454363902</v>
+        <v>589.3871412360784</v>
       </c>
       <c r="P41" t="n">
         <v>697.5824041019341</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.5385657511199</v>
+        <v>445.8535564110246</v>
       </c>
       <c r="R41" t="n">
-        <v>111.7189576691213</v>
+        <v>115.2920837806934</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>212.6370181403607</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K42" t="n">
         <v>226.8651368453566</v>
@@ -37867,7 +37867,7 @@
         <v>351.8386189966427</v>
       </c>
       <c r="M42" t="n">
-        <v>431.401128363139</v>
+        <v>430.1314653067338</v>
       </c>
       <c r="N42" t="n">
         <v>456.0699520808657</v>
@@ -37882,7 +37882,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.72792891192452</v>
+        <v>90.72792891192449</v>
       </c>
       <c r="K43" t="n">
-        <v>247.9371627777316</v>
+        <v>247.9371627777315</v>
       </c>
       <c r="L43" t="n">
         <v>359.3180182379285</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6147434186035</v>
+        <v>386.6147434186034</v>
       </c>
       <c r="N43" t="n">
-        <v>384.1054706397581</v>
+        <v>384.105470639758</v>
       </c>
       <c r="O43" t="n">
         <v>342.4389746327147</v>
@@ -37958,7 +37958,7 @@
         <v>276.5051302949138</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.6093408827544</v>
+        <v>122.6093408827543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>346.3214693207187</v>
       </c>
       <c r="K44" t="n">
-        <v>425.1224398956927</v>
+        <v>316.8651440960043</v>
       </c>
       <c r="L44" t="n">
         <v>430.3737373109869</v>
@@ -38031,7 +38031,7 @@
         <v>523.7897481954653</v>
       </c>
       <c r="O44" t="n">
-        <v>481.1298454363902</v>
+        <v>589.3871412360784</v>
       </c>
       <c r="P44" t="n">
         <v>697.5824041019341</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.54598279995182</v>
+        <v>173.8361891059915</v>
       </c>
       <c r="K45" t="n">
         <v>226.8651368453566</v>
@@ -38107,7 +38107,7 @@
         <v>430.1314653067338</v>
       </c>
       <c r="N45" t="n">
-        <v>583.4306504776798</v>
+        <v>456.0699520808657</v>
       </c>
       <c r="O45" t="n">
         <v>394.7706680821631</v>
@@ -38119,7 +38119,7 @@
         <v>148.3203739069438</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>40.07049209077418</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
